--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-922521.3975153164</v>
+        <v>-924408.9790317188</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>35.51301753918155</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>160.6335276424233</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>55.66811582074952</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>261.9025067912345</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>253.9620394059549</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>147.5811180914629</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -947,7 +947,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>0.1501023121559024</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>66.24227792729184</v>
       </c>
       <c r="H8" t="n">
-        <v>214.6018080185133</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>94.63926978364057</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>73.72838661474171</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>82.93461149148729</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>18.89873761421842</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>58.40168825977445</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>41.03039289227462</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>96.45266989055055</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>200.6498907613226</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750031</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056517</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>253.1361467692725</v>
       </c>
       <c r="X25" t="n">
-        <v>176.8688121773846</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>114.9309043193591</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965526</v>
+        <v>21.61137591104962</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801207</v>
+        <v>91.23070601801196</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>90.21779139437403</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571478</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523559</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>126.4927865473175</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952497999</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1193.238943380987</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C2" t="n">
-        <v>1193.238943380987</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D2" t="n">
-        <v>834.9732447742369</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E2" t="n">
-        <v>834.9732447742369</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2534.893002490522</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2316.258335462585</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2062.496550100676</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>1731.433662757106</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>1731.433662757106</v>
       </c>
       <c r="X2" t="n">
-        <v>1583.378275356799</v>
+        <v>1731.433662757106</v>
       </c>
       <c r="Y2" t="n">
-        <v>1193.238943380987</v>
+        <v>1341.294330781294</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4407,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>110.1734018413236</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4519,19 +4519,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>463.5809975486215</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1838.715370239897</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="C5" t="n">
-        <v>1838.715370239897</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="D5" t="n">
-        <v>1480.449671633147</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="E5" t="n">
-        <v>1094.661419034903</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>683.6755142452951</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1838.715370239897</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y5" t="n">
-        <v>1838.715370239897</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>702.55736257324</v>
+        <v>727.977365709307</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>507.1847865657769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1404.597857825387</v>
+        <v>1370.766673031379</v>
       </c>
       <c r="C8" t="n">
-        <v>1035.635340884975</v>
+        <v>1370.766673031379</v>
       </c>
       <c r="D8" t="n">
-        <v>677.3696422782245</v>
+        <v>1012.500974424629</v>
       </c>
       <c r="E8" t="n">
-        <v>291.5813896799803</v>
+        <v>1012.500974424629</v>
       </c>
       <c r="F8" t="n">
-        <v>284.6358889307768</v>
+        <v>601.5150696350213</v>
       </c>
       <c r="G8" t="n">
-        <v>270.7124848693678</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4841,13 +4841,13 @@
         <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.202948062278</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.737189801198</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y8" t="n">
-        <v>1404.597857825387</v>
+        <v>1757.366513095501</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>632.5337622027571</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>343.360151857325</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>475.7924673804755</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C13" t="n">
-        <v>475.7924673804755</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5230,19 +5230,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609662</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609662</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>696.5850465240056</v>
+        <v>985.7136853104474</v>
       </c>
       <c r="X13" t="n">
-        <v>696.5850465240056</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y13" t="n">
-        <v>475.7924673804755</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>324.3840174432677</v>
+        <v>604.1452103957603</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>604.1452103957603</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352016</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W16" t="n">
-        <v>954.814612315055</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170375</v>
+        <v>785.793675226</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.0324822735074</v>
+        <v>785.793675226</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5601,7 +5601,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.3055067228584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C19" t="n">
-        <v>413.3055067228584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1401.489331274518</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1112.360692488076</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V19" t="n">
-        <v>1112.360692488076</v>
+        <v>696.115860914169</v>
       </c>
       <c r="W19" t="n">
-        <v>822.9435224511154</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X19" t="n">
-        <v>594.9539715530981</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y19" t="n">
-        <v>594.9539715530981</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765189</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>531.397718270632</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336714</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123423</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123423</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123423</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123423</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123423</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123423</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V25" t="n">
-        <v>786.0822064765186</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W25" t="n">
-        <v>496.665036439558</v>
+        <v>475.6246508103596</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>247.6350999123423</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123423</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6245,10 +6245,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6440,10 +6440,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6452,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6476,16 +6476,16 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>600.4439501541573</v>
+        <v>583.6915747572979</v>
       </c>
       <c r="C31" t="n">
-        <v>487.2686325076212</v>
+        <v>470.5162571107619</v>
       </c>
       <c r="D31" t="n">
-        <v>392.9128583766563</v>
+        <v>448.686584473338</v>
       </c>
       <c r="E31" t="n">
-        <v>300.760630075634</v>
+        <v>356.5343561723158</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590944</v>
+        <v>265.4052739557764</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028586</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962056</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1712.787274970148</v>
       </c>
       <c r="U31" t="n">
-        <v>1496.171876861938</v>
+        <v>1479.419501465078</v>
       </c>
       <c r="V31" t="n">
-        <v>1297.248253937422</v>
+        <v>1280.495878540562</v>
       </c>
       <c r="W31" t="n">
-        <v>1063.591949181832</v>
+        <v>1046.839573784972</v>
       </c>
       <c r="X31" t="n">
-        <v>891.3632635651855</v>
+        <v>874.6108881683258</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.3315497030262</v>
+        <v>709.5791743061667</v>
       </c>
     </row>
     <row r="32">
@@ -6777,28 +6777,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083205</v>
@@ -6847,22 +6847,22 @@
         <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6959,13 +6959,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636247</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,19 +7163,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7193,10 +7193,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,16 +7248,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7731,22 +7731,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>277.6717966208069</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>169.2863157167183</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208072</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.68086152672507</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>206.8109177748187</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>108.8451328388534</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>107.5850801259377</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>125.0948911678388</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>51.48775256250545</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338615</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>33.3868515673185</v>
       </c>
       <c r="X25" t="n">
-        <v>48.84084321165255</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>171.3064480792182</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>71.80084047860552</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897903</v>
+        <v>93.71057173897891</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>104.5413092227027</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1214025.446096307</v>
+        <v>1214025.446096308</v>
       </c>
     </row>
     <row r="8">
@@ -26320,25 +26320,25 @@
         <v>184734.3982194637</v>
       </c>
       <c r="E2" t="n">
+        <v>175963.076881969</v>
+      </c>
+      <c r="F2" t="n">
         <v>175963.0768819691</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>175963.0768819691</v>
+      </c>
+      <c r="H2" t="n">
         <v>175963.076881969</v>
-      </c>
-      <c r="G2" t="n">
-        <v>175963.076881969</v>
-      </c>
-      <c r="H2" t="n">
-        <v>175963.0768819691</v>
       </c>
       <c r="I2" t="n">
         <v>175963.076881969</v>
       </c>
       <c r="J2" t="n">
-        <v>175963.0768819691</v>
+        <v>175963.0768819689</v>
       </c>
       <c r="K2" t="n">
-        <v>183069.9618053716</v>
+        <v>183069.9618053714</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194639</v>
@@ -26350,7 +26350,7 @@
         <v>184734.398219464</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194641</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194641</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284577</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086674</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284577</v>
       </c>
     </row>
     <row r="4">
@@ -26430,34 +26430,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106727</v>
+        <v>40339.23010106731</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819125</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="O4" t="n">
         <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-653725.4268450147</v>
+        <v>-653725.4268450146</v>
       </c>
       <c r="C6" t="n">
         <v>-63757.54763047019</v>
       </c>
       <c r="D6" t="n">
-        <v>-63757.54763047013</v>
+        <v>-63757.54763047019</v>
       </c>
       <c r="E6" t="n">
-        <v>-463358.8931305142</v>
+        <v>-463456.3522564867</v>
       </c>
       <c r="F6" t="n">
-        <v>61801.14334638166</v>
+        <v>61703.68422040959</v>
       </c>
       <c r="G6" t="n">
-        <v>61801.14334638166</v>
+        <v>61703.68422040957</v>
       </c>
       <c r="H6" t="n">
-        <v>61801.14334638181</v>
+        <v>61703.68422040954</v>
       </c>
       <c r="I6" t="n">
-        <v>61801.14334638169</v>
+        <v>61703.68422040952</v>
       </c>
       <c r="J6" t="n">
-        <v>-114622.0758462111</v>
+        <v>-114719.5349721836</v>
       </c>
       <c r="K6" t="n">
-        <v>1939.91787123587</v>
+        <v>1921.424133301134</v>
       </c>
       <c r="L6" t="n">
-        <v>32082.99077038042</v>
+        <v>32082.99077038058</v>
       </c>
       <c r="M6" t="n">
-        <v>-92375.11766258955</v>
+        <v>-92375.11766258962</v>
       </c>
       <c r="N6" t="n">
-        <v>42425.89757124738</v>
+        <v>42425.89757124739</v>
       </c>
       <c r="O6" t="n">
-        <v>42425.89757124755</v>
+        <v>42425.8975712473</v>
       </c>
       <c r="P6" t="n">
-        <v>-1736.707731598202</v>
+        <v>-1736.707731598217</v>
       </c>
     </row>
   </sheetData>
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
@@ -26722,10 +26722,10 @@
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26741,22 +26741,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26768,10 +26768,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.92863350108343</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855721</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
     </row>
     <row r="3">
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>371.3630282025299</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>13.78218516654826</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>111.6416864383014</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>24.37936745074319</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,16 +27619,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>127.9683306663069</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>266.2030519293321</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>199.719200041222</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>225.5595530768813</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>347.5418920935032</v>
       </c>
       <c r="H8" t="n">
-        <v>109.3209647458439</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>130.3958356744437</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>144.8562667373531</v>
       </c>
     </row>
     <row r="11">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33655,40 +33655,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,10 +33728,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33740,7 +33740,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33749,10 +33749,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33764,7 +33764,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33828,7 +33828,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,10 +33840,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33892,40 +33892,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,10 +33965,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33977,7 +33977,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33986,10 +33986,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34065,7 +34065,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,10 +34077,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
@@ -35744,7 +35744,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36443,22 +36443,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36686,16 +36686,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>560.035498861915</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36923,16 +36923,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412262</v>
+        <v>67.71102679412273</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.42895660043196</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37160,16 +37160,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>257.2993485017925</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523318</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,7 +37470,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37707,7 +37707,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
